--- a/DataImbalancingTech.xlsx
+++ b/DataImbalancingTech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhartipatelseagraves/Documents/GitHub/CocktailRecommenderSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9EE8A6-1D96-A840-B02C-779B5BD19126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41BD76B-3874-9C4E-9E0C-EE1A69BF6287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41040" yWindow="500" windowWidth="43020" windowHeight="21100" xr2:uid="{355CFB05-378E-D14D-9356-1AE1C1B76975}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{355CFB05-378E-D14D-9356-1AE1C1B76975}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>train</t>
   </si>
@@ -77,20 +77,20 @@
     <t>{'n_factors': 100, 'n_epochs': 20, 'lr_all': 0.002, 'reg_all': 0.2}</t>
   </si>
   <si>
-    <t>{'n_factors': 20, 'n_epochs': 40, 'lr_all': 0.002, 'reg_all': 0.2}</t>
-  </si>
-  <si>
     <t>Grid Search. - DO NOT USE. Always find the best performing combination in the grid,  but computationally expensive</t>
   </si>
   <si>
     <t>RMSE (train vs Validation) - Best SVD (random search) - less computationally expensive, finds where our model best performs, can lead to good solutions but not guaranteed</t>
+  </si>
+  <si>
+    <t>{'n_factors': 100, 'n_epochs': 40, 'lr_all': 0.002, 'reg_all': 0.2}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,16 +99,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Var(--jp-code-font-family)"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,13 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,23 +167,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597478</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>495909</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475326</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BE4073-00FA-2501-5AFB-1BE228A3EA7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E375EC22-1071-C5BF-C9C4-00309AFCB4E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -191,8 +199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13830300" y="6794501"/>
-          <a:ext cx="6299809" cy="3746500"/>
+          <a:off x="9233478" y="4615295"/>
+          <a:ext cx="5545223" cy="3444586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -203,23 +211,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20782</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>13856</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>420255</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>205640</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237BFD8E-C77F-8F75-7229-338B9BFF40E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949B7C35-E4CB-B0D1-3489-CBCD6B41FF8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -235,8 +243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15203055" y="4285674"/>
-          <a:ext cx="6218382" cy="3932511"/>
+          <a:off x="9191625" y="8429625"/>
+          <a:ext cx="5854700" cy="3565269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -247,23 +255,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>121535</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>215052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F96D289-3A25-E54D-6C59-49C6A6FD08CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDC8834-FC76-CFD5-173B-EC35838C0E5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,140 +287,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13868400" y="10795000"/>
-          <a:ext cx="6553200" cy="3995035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692728</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>570576</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>70427</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E375EC22-1071-C5BF-C9C4-00309AFCB4E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9340273" y="4410363"/>
-          <a:ext cx="5581303" cy="3464791"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>41019</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949B7C35-E4CB-B0D1-3489-CBCD6B41FF8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8077200" y="6553200"/>
-          <a:ext cx="5854700" cy="3506965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>24552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDC8834-FC76-CFD5-173B-EC35838C0E5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8077200" y="10744200"/>
-          <a:ext cx="5753100" cy="3555151"/>
+          <a:off x="9318625" y="12398375"/>
+          <a:ext cx="5753100" cy="3612302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -425,14 +301,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>355601</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47123</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,7 +324,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -467,16 +343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3349625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>80973</xdr:rowOff>
+      <xdr:colOff>631826</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>207973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -492,15 +368,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2108200" y="6553200"/>
-          <a:ext cx="5905500" cy="3546919"/>
+          <a:off x="3349625" y="8461375"/>
+          <a:ext cx="5918201" cy="3605223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -512,15 +388,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>526108</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>621358</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>244476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -536,6 +412,138 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460750" y="12493626"/>
+          <a:ext cx="5796608" cy="3546475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDEACC35-6D25-35BA-F87F-F47850E3344C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15192375" y="4635500"/>
+          <a:ext cx="5762625" cy="3603144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>102848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40FEFEE-2375-D00C-F80B-3D5E5BA29C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15128875" y="8302625"/>
+          <a:ext cx="5969000" cy="3738223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3618953B-1E8E-C4F1-316D-D74FE582122C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
@@ -543,8 +551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2108200" y="10617201"/>
-          <a:ext cx="5783907" cy="3492500"/>
+          <a:off x="15144750" y="12287250"/>
+          <a:ext cx="5842000" cy="3699933"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,21 +881,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC514745-6A3B-5A40-A519-9C2BD4F2159A}">
-  <dimension ref="A3:P53"/>
+  <dimension ref="A3:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" s="2" customFormat="1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -898,116 +907,128 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" ht="23">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>90000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>153635</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="3">
         <v>10260</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:16" ht="23">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B5" s="3">
         <v>10000</v>
       </c>
-      <c r="I6">
+      <c r="I5" s="3">
         <v>10000</v>
       </c>
-      <c r="P6">
+      <c r="P5" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17">
-      <c r="A8" s="3" t="s">
+    <row r="6" spans="1:16" ht="23">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B6" s="3">
         <v>10000</v>
       </c>
-      <c r="I8">
+      <c r="I6" s="3">
         <v>10000</v>
       </c>
-      <c r="P8">
+      <c r="P6" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17">
-      <c r="A10" s="3" t="s">
+    <row r="7" spans="1:16" ht="23">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B7" s="4">
         <v>1.0390258908509</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I7" s="4">
         <v>1.20471964666265</v>
       </c>
-      <c r="P10" s="1">
-        <v>1.2055224061363301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="51">
-      <c r="A11" s="3" t="s">
+      <c r="P7" s="4">
+        <v>1.1978511877354101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="92">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="138">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="68">
-      <c r="A12" s="3" t="s">
+      <c r="B9" s="4">
+        <v>0.99151629844559697</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.15366828251417</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1.1529696138127701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="23">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.99151629844559697</v>
-      </c>
-      <c r="I12">
-        <v>1.15366828251417</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1.15436051980217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="34">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="69">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="34">
-      <c r="A34" s="3" t="s">
+    <row r="32" spans="1:1" ht="69">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="34">
-      <c r="A53" s="3" t="s">
+    <row r="51" spans="1:1" ht="69">
+      <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
